--- a/mini-game/Assets/Resources/doc/environment.xlsx
+++ b/mini-game/Assets/Resources/doc/environment.xlsx
@@ -1,17 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
+  <bookViews>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
   <si>
     <t>#environment</t>
   </si>
@@ -47,37 +50,244 @@
   </si>
   <si>
     <t>land_img</t>
+  </si>
+  <si>
+    <t>平地</t>
+  </si>
+  <si>
+    <t>无</t>
+  </si>
+  <si>
+    <t>树木</t>
+  </si>
+  <si>
+    <t>减缓移速</t>
+  </si>
+  <si>
+    <t>水</t>
+  </si>
+  <si>
+    <t>致死</t>
+  </si>
+  <si>
+    <t>栅栏</t>
+  </si>
+  <si>
+    <t>羊可越，其他不可</t>
+  </si>
+  <si>
+    <t>荆棘</t>
+  </si>
+  <si>
+    <t>扣血</t>
+  </si>
+  <si>
+    <t>陷阱</t>
+  </si>
+  <si>
+    <t>篝火</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
-    <font>
-      <sz val="10.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="25">
+    <font>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
-    </font>
-    <font>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -85,39 +295,517 @@
         <bgColor rgb="FFB7B7B7"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
-    <border/>
+  <borders count="9">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="49">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="49">
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -307,37 +995,44 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:Y13"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
+  <cols>
+    <col min="3" max="3" width="17.2857142857143" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" ht="12.75" spans="1:1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" ht="12.75" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" ht="12.75" spans="1:3">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
     </row>
-    <row r="5">
+    <row r="5" ht="12.75" spans="1:25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -374,7 +1069,7 @@
       <c r="X5" s="4"/>
       <c r="Y5" s="4"/>
     </row>
-    <row r="6">
+    <row r="6" spans="1:5">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -391,7 +1086,85 @@
         <v>11</v>
       </c>
     </row>
+    <row r="7" customHeight="1" spans="1:3">
+      <c r="A7">
+        <v>3001</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:3">
+      <c r="A8">
+        <v>3002</v>
+      </c>
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:3">
+      <c r="A9">
+        <v>3003</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:3">
+      <c r="A10">
+        <v>3004</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:3">
+      <c r="A11">
+        <v>3005</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" customHeight="1" spans="1:3">
+      <c r="A12">
+        <v>3006</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="13" customHeight="1" spans="1:3">
+      <c r="A13">
+        <v>3007</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>21</v>
+      </c>
+    </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/mini-game/Assets/Resources/doc/environment.xlsx
+++ b/mini-game/Assets/Resources/doc/environment.xlsx
@@ -14,13 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="24">
-  <si>
-    <t>#environment</t>
-  </si>
-  <si>
-    <t>#地形</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>地形id</t>
   </si>
@@ -95,10 +89,10 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -108,13 +102,6 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
@@ -132,6 +119,42 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
@@ -139,26 +162,56 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Arial"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -171,112 +224,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Arial"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="Arial"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -297,19 +284,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -321,6 +380,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -333,49 +434,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -387,31 +446,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -423,61 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -491,50 +478,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -554,13 +502,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -583,6 +550,26 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -591,158 +578,157 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="18" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1004,10 +990,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:Y13"/>
+  <dimension ref="A1:Y9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4285714285714" defaultRowHeight="15.75" customHeight="1"/>
@@ -1015,152 +1001,135 @@
     <col min="3" max="3" width="17.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="12.75" spans="1:1">
+    <row r="1" spans="1:25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
     </row>
-    <row r="2" ht="12.75" spans="1:1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
+    <row r="2" spans="1:5">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="4" ht="12.75" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
+    <row r="3" customHeight="1" spans="1:3">
+      <c r="A3">
+        <v>3001</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" ht="12.75" spans="1:25">
-      <c r="A5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="4"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
-      <c r="O5" s="4"/>
-      <c r="P5" s="4"/>
-      <c r="Q5" s="4"/>
-      <c r="R5" s="4"/>
-      <c r="S5" s="4"/>
-      <c r="T5" s="4"/>
-      <c r="U5" s="4"/>
-      <c r="V5" s="4"/>
-      <c r="W5" s="4"/>
-      <c r="X5" s="4"/>
-      <c r="Y5" s="4"/>
+    <row r="4" customHeight="1" spans="1:3">
+      <c r="A4">
+        <v>3002</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>11</v>
+    <row r="5" customHeight="1" spans="1:3">
+      <c r="A5">
+        <v>3003</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:3">
+      <c r="A6">
+        <v>3004</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="7" customHeight="1" spans="1:3">
       <c r="A7">
-        <v>3001</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
+        <v>3005</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="1:3">
       <c r="A8">
-        <v>3002</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>15</v>
+        <v>3006</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:3">
       <c r="A9">
-        <v>3003</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:3">
-      <c r="A10">
-        <v>3004</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="5" t="s">
+        <v>3007</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="4" t="s">
         <v>19</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:3">
-      <c r="A11">
-        <v>3005</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" customHeight="1" spans="1:3">
-      <c r="A12">
-        <v>3006</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" customHeight="1" spans="1:3">
-      <c r="A13">
-        <v>3007</v>
-      </c>
-      <c r="B13" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>21</v>
       </c>
     </row>
   </sheetData>
